--- a/xlsx/巴西_intext.xlsx
+++ b/xlsx/巴西_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="966">
   <si>
     <t>巴西</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>巴西 (消歧義)</t>
+    <t>巴西 (消歧义)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9B%BD%E6%97%97</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E7%88%BE%C2%B7%E7%89%B9%E6%A2%85%E7%88%BE</t>
   </si>
   <si>
-    <t>米歇爾·特梅爾</t>
+    <t>米歇尔·特梅尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%97%E8%AE%AE%E9%99%A2_(%E5%B7%B4%E8%A5%BF)</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>巴西國民議會</t>
+    <t>巴西国民议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%85%89%E7%AF%80%E7%B4%84%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>日光節約時間</t>
+    <t>日光节约时间</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Daylight_saving_time_in_Brazil</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E7%94%B0</t>
   </si>
   <si>
-    <t>農田</t>
+    <t>农田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E6%9E%97</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>巴西歷史</t>
+    <t>巴西历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%A9%AC%E9%80%8A%E6%B2%B3</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%8D%B7%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>英荷戰爭</t>
+    <t>英荷战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E4%BB%91</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>法蘭西第一帝國</t>
+    <t>法兰西第一帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%E4%B8%80%E4%B8%96</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%85%8B%E9%9B%B7%E5%A4%9A%C2%B7%E5%85%A7%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>坦克雷多·內維斯</t>
+    <t>坦克雷多·内维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%B3%BD%C2%B7%E8%90%A8%E5%B0%94%E5%86%85</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E7%88%BE%E7%91%AA%C2%B7%E7%BE%85%E5%A1%9E%E5%A4%AB</t>
   </si>
   <si>
-    <t>迪爾瑪·羅塞夫</t>
+    <t>迪尔玛·罗塞夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>2016年夏季奧林匹克運動會</t>
+    <t>2016年夏季奥林匹克运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E6%94%BF%E5%BA%9C</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>參議員</t>
+    <t>参议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%A4%96%E4%BA%A4</t>
@@ -677,31 +677,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%AC%A1%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>二次大戰</t>
+    <t>二次大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>美洲國家組織</t>
+    <t>美洲国家组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%82%8A%E5%A4%96%E4%BA%A4</t>
   </si>
   <si>
-    <t>多邊外交</t>
+    <t>多边外交</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A1%94%E9%A6%AC%E6%8B%89%E8%92%82%E5%AE%AE</t>
   </si>
   <si>
-    <t>伊塔馬拉蒂宮</t>
+    <t>伊塔马拉蒂宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%86%9B%E4%BA%8B</t>
@@ -713,25 +713,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>巴西海軍</t>
+    <t>巴西海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%B5%B7%E8%BB%8D%E9%99%B8%E6%88%B0%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴西海軍陸戰隊</t>
+    <t>巴西海军陆战队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E6%B5%B7%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%85%B5</t>
   </si>
   <si>
-    <t>巴西海軍航空兵</t>
+    <t>巴西海军航空兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>巴西空軍</t>
+    <t>巴西空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -851,25 +851,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴西利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%8D%80_(%E5%B7%B4%E8%A5%BF)</t>
   </si>
   <si>
-    <t>聯邦區 (巴西)</t>
+    <t>联邦区 (巴西)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B2%A2%E8%96%A9%E6%B4%9B</t>
   </si>
   <si>
-    <t>聖貢薩洛</t>
+    <t>圣贡萨洛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%87%8C%E8%92%82%E5%B7%B4</t>
   </si>
   <si>
-    <t>庫里蒂巴</t>
+    <t>库里蒂巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E9%82%A3%E5%B7%9E</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B8%8C%E4%BA%9E%E6%96%AF%E5%85%AC%E7%88%B5%E5%9F%8E</t>
   </si>
   <si>
-    <t>卡希亞斯公爵城</t>
+    <t>卡希亚斯公爵城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AF%E8%A5%BF%E8%85%93</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BC%8A%E7%93%9C%E8%98%87</t>
   </si>
   <si>
-    <t>新伊瓜蘇</t>
+    <t>新伊瓜苏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9B%B7%E6%A0%BC%E9%87%8C%E6%B8%AF</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%9B%B7%E8%A5%BF%E7%B4%8D</t>
   </si>
   <si>
-    <t>特雷西納</t>
+    <t>特雷西纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%A5%A5%E4%BC%8A%E5%B7%9E</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E5%88%A9%E7%B4%8D%E5%B3%B0</t>
   </si>
   <si>
-    <t>內布利納峰</t>
+    <t>内布利纳峰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E9%82%A3%E6%B2%B3</t>
@@ -1013,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>巴西經濟</t>
+    <t>巴西经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E4%BA%9A%E5%B0%94</t>
@@ -1157,19 +1154,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%B4%8D%E6%96%AF%E5%90%89%E6%8B%89%E6%96%AF</t>
   </si>
   <si>
-    <t>米納斯吉拉斯</t>
+    <t>米纳斯吉拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>里約</t>
+    <t>里约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
   </si>
   <si>
-    <t>羅馬天主教</t>
+    <t>罗马天主教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
@@ -1199,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%A6%E6%A5%AD</t>
   </si>
   <si>
-    <t>礦業</t>
+    <t>矿业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E4%B8%BB</t>
@@ -1223,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>敘利亞人</t>
+    <t>叙利亚人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E4%BA%BA</t>
@@ -1247,63 +1244,60 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%8B%89%E6%B4%9B%E5%8D%9A%E6%96%AF</t>
   </si>
   <si>
-    <t>維拉洛博斯</t>
+    <t>维拉洛博斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%BF%9D%E7%BE%85%E8%97%9D%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>聖保羅藝術博物館</t>
+    <t>圣保罗艺术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E5%B9%B4%E8%8F%AF%E6%9C%83</t>
   </si>
   <si>
-    <t>嘉年華會</t>
+    <t>嘉年华会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C%E5%8F%97%E9%9B%A3%E6%97%A5</t>
   </si>
   <si>
-    <t>耶穌受難日</t>
+    <t>耶稣受难日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB%E7%AF%80</t>
   </si>
   <si>
-    <t>復活節</t>
+    <t>复活节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%AF%80</t>
   </si>
   <si>
-    <t>勞動節</t>
+    <t>劳动节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80</t>
   </si>
   <si>
-    <t>聖誕節</t>
+    <t>圣诞节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%A7%91</t>
   </si>
   <si>
-    <t>醫科</t>
+    <t>医科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%95%99%E7%A7%91%E6%96%87%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國教科文組織</t>
+    <t>联合国教科文组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
   </si>
   <si>
@@ -1319,31 +1313,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>巴西國家足球隊</t>
+    <t>巴西国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>世界盃足球賽</t>
+    <t>世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E9%AB%94%E8%82%B2</t>
   </si>
   <si>
-    <t>巴西體育</t>
+    <t>巴西体育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E9%A0%93%C2%B7%E5%86%BC%E6%8B%BF</t>
   </si>
   <si>
-    <t>艾爾頓·冼拿</t>
+    <t>艾尔顿·冼拿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>體育運動</t>
+    <t>体育运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -1355,63 +1349,57 @@
     <t>https://zh.wikipedia.org/wiki/1958%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1958年世界盃足球賽</t>
+    <t>1958年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1962年世界盃足球賽</t>
+    <t>1962年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1970年世界盃足球賽</t>
+    <t>1970年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1994%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1994年世界盃足球賽</t>
+    <t>1994年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2002年世界盃足球賽</t>
+    <t>2002年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD%E7%B4%80%E9%8C%84</t>
   </si>
   <si>
-    <t>世界盃足球賽紀錄</t>
+    <t>世界杯足球赛纪录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>2007年美洲國家盃</t>
+    <t>2007年美洲国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年世界盃足球賽</t>
+    <t>2014年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%B4%84%E7%86%B1%E5%85%A7%E7%9B%A7</t>
   </si>
   <si>
-    <t>里約熱內盧</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
   </si>
   <si>
-    <t>2016年夏季奥林匹克运动会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
   </si>
   <si>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A3%9A%E5%9B%9B%E5%9C%8B</t>
   </si>
   <si>
-    <t>金磚四國</t>
+    <t>金砖四国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_Guardian</t>
@@ -1577,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -1601,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1619,15 +1607,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
   </si>
   <si>
@@ -1637,9 +1622,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
   </si>
   <si>
@@ -1649,19 +1631,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1673,25 +1649,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1703,21 +1679,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
   </si>
   <si>
@@ -1733,31 +1706,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1787,7 +1760,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1799,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -1811,9 +1784,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
   </si>
   <si>
@@ -1859,9 +1829,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
   </si>
   <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
@@ -1889,9 +1856,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -1907,19 +1871,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1943,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -1985,9 +1949,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
   </si>
   <si>
-    <t>联合国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
@@ -2051,9 +2012,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -2069,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -2081,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
@@ -2111,19 +2069,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2177,9 +2132,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -2201,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -2543,7 +2495,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E5%85%B0</t>
@@ -2645,7 +2597,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -2669,7 +2621,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2711,9 +2663,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
-    <t>聖多美和普林西比</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
   </si>
   <si>
@@ -2723,13 +2672,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E5%A7%94%E5%93%A1%E6%9C%83%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>葡語系奧林匹克委員會總會</t>
+    <t>葡语系奥林匹克委员会总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%AA%9E%E7%B3%BB%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>葡語系運動會</t>
+    <t>葡语系运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD%E5%9B%BD%E5%AE%B6%E5%92%8C%E5%9C%B0%E5%8C%BA%E5%88%97%E8%A1%A8</t>
@@ -2831,7 +2780,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E5%8D%B0%E5%BA%A6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國－印度關係</t>
+    <t>中国－印度关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BF%84%E5%85%B3%E7%B3%BB</t>
@@ -2867,9 +2816,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A0%96%E5%9B%9B%E5%9B%BD</t>
   </si>
   <si>
-    <t>金砖四国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BC%80%E5%8F%91%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
@@ -2891,25 +2837,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>金磚國家U-17足球盃賽</t>
+    <t>金砖国家U-17足球杯赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2016年金磚國家U-17足球盃賽</t>
+    <t>2016年金砖国家U-17足球杯赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2927,7 +2870,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2945,7 +2888,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2957,13 +2900,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -7545,7 +7488,7 @@
         <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>20</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7571,10 +7514,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
         <v>279</v>
-      </c>
-      <c r="F147" t="s">
-        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>4</v>
@@ -7600,10 +7543,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
         <v>281</v>
-      </c>
-      <c r="F148" t="s">
-        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -7629,10 +7572,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s">
         <v>283</v>
-      </c>
-      <c r="F149" t="s">
-        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7658,10 +7601,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" t="s">
         <v>285</v>
-      </c>
-      <c r="F150" t="s">
-        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7687,10 +7630,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>286</v>
+      </c>
+      <c r="F151" t="s">
         <v>287</v>
-      </c>
-      <c r="F151" t="s">
-        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7716,10 +7659,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>288</v>
+      </c>
+      <c r="F152" t="s">
         <v>289</v>
-      </c>
-      <c r="F152" t="s">
-        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7745,10 +7688,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>290</v>
+      </c>
+      <c r="F153" t="s">
         <v>291</v>
-      </c>
-      <c r="F153" t="s">
-        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7774,10 +7717,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" t="s">
         <v>293</v>
-      </c>
-      <c r="F154" t="s">
-        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7803,10 +7746,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>294</v>
+      </c>
+      <c r="F155" t="s">
         <v>295</v>
-      </c>
-      <c r="F155" t="s">
-        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7832,10 +7775,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>296</v>
+      </c>
+      <c r="F156" t="s">
         <v>297</v>
-      </c>
-      <c r="F156" t="s">
-        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7861,10 +7804,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>298</v>
+      </c>
+      <c r="F157" t="s">
         <v>299</v>
-      </c>
-      <c r="F157" t="s">
-        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -7890,10 +7833,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>300</v>
+      </c>
+      <c r="F158" t="s">
         <v>301</v>
-      </c>
-      <c r="F158" t="s">
-        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7919,10 +7862,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>302</v>
+      </c>
+      <c r="F159" t="s">
         <v>303</v>
-      </c>
-      <c r="F159" t="s">
-        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7948,10 +7891,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>304</v>
+      </c>
+      <c r="F160" t="s">
         <v>305</v>
-      </c>
-      <c r="F160" t="s">
-        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7977,10 +7920,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>306</v>
+      </c>
+      <c r="F161" t="s">
         <v>307</v>
-      </c>
-      <c r="F161" t="s">
-        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8006,10 +7949,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>308</v>
+      </c>
+      <c r="F162" t="s">
         <v>309</v>
-      </c>
-      <c r="F162" t="s">
-        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -8122,10 +8065,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>310</v>
+      </c>
+      <c r="F166" t="s">
         <v>311</v>
-      </c>
-      <c r="F166" t="s">
-        <v>312</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8151,10 +8094,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>312</v>
+      </c>
+      <c r="F167" t="s">
         <v>313</v>
-      </c>
-      <c r="F167" t="s">
-        <v>314</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -8180,10 +8123,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>314</v>
+      </c>
+      <c r="F168" t="s">
         <v>315</v>
-      </c>
-      <c r="F168" t="s">
-        <v>316</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -8238,10 +8181,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>316</v>
+      </c>
+      <c r="F170" t="s">
         <v>317</v>
-      </c>
-      <c r="F170" t="s">
-        <v>318</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8267,10 +8210,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>318</v>
+      </c>
+      <c r="F171" t="s">
         <v>319</v>
-      </c>
-      <c r="F171" t="s">
-        <v>320</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -8296,10 +8239,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>320</v>
+      </c>
+      <c r="F172" t="s">
         <v>321</v>
-      </c>
-      <c r="F172" t="s">
-        <v>322</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8325,10 +8268,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>322</v>
+      </c>
+      <c r="F173" t="s">
         <v>323</v>
-      </c>
-      <c r="F173" t="s">
-        <v>324</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8354,10 +8297,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>324</v>
+      </c>
+      <c r="F174" t="s">
         <v>325</v>
-      </c>
-      <c r="F174" t="s">
-        <v>326</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8383,10 +8326,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>326</v>
+      </c>
+      <c r="F175" t="s">
         <v>327</v>
-      </c>
-      <c r="F175" t="s">
-        <v>328</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8412,10 +8355,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>328</v>
+      </c>
+      <c r="F176" t="s">
         <v>329</v>
-      </c>
-      <c r="F176" t="s">
-        <v>330</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8441,10 +8384,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>330</v>
+      </c>
+      <c r="F177" t="s">
         <v>331</v>
-      </c>
-      <c r="F177" t="s">
-        <v>332</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -8470,10 +8413,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>332</v>
+      </c>
+      <c r="F178" t="s">
         <v>333</v>
-      </c>
-      <c r="F178" t="s">
-        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -8499,10 +8442,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>334</v>
+      </c>
+      <c r="F179" t="s">
         <v>335</v>
-      </c>
-      <c r="F179" t="s">
-        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8528,10 +8471,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>336</v>
+      </c>
+      <c r="F180" t="s">
         <v>337</v>
-      </c>
-      <c r="F180" t="s">
-        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8557,10 +8500,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>338</v>
+      </c>
+      <c r="F181" t="s">
         <v>339</v>
-      </c>
-      <c r="F181" t="s">
-        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8586,10 +8529,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>340</v>
+      </c>
+      <c r="F182" t="s">
         <v>341</v>
-      </c>
-      <c r="F182" t="s">
-        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8615,10 +8558,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>342</v>
+      </c>
+      <c r="F183" t="s">
         <v>343</v>
-      </c>
-      <c r="F183" t="s">
-        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8644,10 +8587,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>344</v>
+      </c>
+      <c r="F184" t="s">
         <v>345</v>
-      </c>
-      <c r="F184" t="s">
-        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8673,10 +8616,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>346</v>
+      </c>
+      <c r="F185" t="s">
         <v>347</v>
-      </c>
-      <c r="F185" t="s">
-        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8702,10 +8645,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>348</v>
+      </c>
+      <c r="F186" t="s">
         <v>349</v>
-      </c>
-      <c r="F186" t="s">
-        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8731,10 +8674,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>350</v>
+      </c>
+      <c r="F187" t="s">
         <v>351</v>
-      </c>
-      <c r="F187" t="s">
-        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8760,10 +8703,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>352</v>
+      </c>
+      <c r="F188" t="s">
         <v>353</v>
-      </c>
-      <c r="F188" t="s">
-        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8789,10 +8732,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>354</v>
+      </c>
+      <c r="F189" t="s">
         <v>355</v>
-      </c>
-      <c r="F189" t="s">
-        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8818,10 +8761,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>356</v>
+      </c>
+      <c r="F190" t="s">
         <v>357</v>
-      </c>
-      <c r="F190" t="s">
-        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8847,10 +8790,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" t="s">
         <v>359</v>
-      </c>
-      <c r="F191" t="s">
-        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8905,10 +8848,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>360</v>
+      </c>
+      <c r="F193" t="s">
         <v>361</v>
-      </c>
-      <c r="F193" t="s">
-        <v>362</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8934,10 +8877,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>362</v>
+      </c>
+      <c r="F194" t="s">
         <v>363</v>
-      </c>
-      <c r="F194" t="s">
-        <v>364</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8963,10 +8906,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>364</v>
+      </c>
+      <c r="F195" t="s">
         <v>365</v>
-      </c>
-      <c r="F195" t="s">
-        <v>366</v>
       </c>
       <c r="G195" t="n">
         <v>4</v>
@@ -8992,10 +8935,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>366</v>
+      </c>
+      <c r="F196" t="s">
         <v>367</v>
-      </c>
-      <c r="F196" t="s">
-        <v>368</v>
       </c>
       <c r="G196" t="n">
         <v>5</v>
@@ -9021,10 +8964,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>368</v>
+      </c>
+      <c r="F197" t="s">
         <v>369</v>
-      </c>
-      <c r="F197" t="s">
-        <v>370</v>
       </c>
       <c r="G197" t="n">
         <v>3</v>
@@ -9050,10 +8993,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>370</v>
+      </c>
+      <c r="F198" t="s">
         <v>371</v>
-      </c>
-      <c r="F198" t="s">
-        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -9079,10 +9022,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>372</v>
+      </c>
+      <c r="F199" t="s">
         <v>373</v>
-      </c>
-      <c r="F199" t="s">
-        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -9108,10 +9051,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>374</v>
+      </c>
+      <c r="F200" t="s">
         <v>375</v>
-      </c>
-      <c r="F200" t="s">
-        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9137,10 +9080,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>376</v>
+      </c>
+      <c r="F201" t="s">
         <v>377</v>
-      </c>
-      <c r="F201" t="s">
-        <v>378</v>
       </c>
       <c r="G201" t="n">
         <v>10</v>
@@ -9166,10 +9109,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>378</v>
+      </c>
+      <c r="F202" t="s">
         <v>379</v>
-      </c>
-      <c r="F202" t="s">
-        <v>380</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9195,10 +9138,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>380</v>
+      </c>
+      <c r="F203" t="s">
         <v>381</v>
-      </c>
-      <c r="F203" t="s">
-        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>10</v>
@@ -9224,10 +9167,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>382</v>
+      </c>
+      <c r="F204" t="s">
         <v>383</v>
-      </c>
-      <c r="F204" t="s">
-        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9253,10 +9196,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>384</v>
+      </c>
+      <c r="F205" t="s">
         <v>385</v>
-      </c>
-      <c r="F205" t="s">
-        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9282,10 +9225,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>386</v>
+      </c>
+      <c r="F206" t="s">
         <v>387</v>
-      </c>
-      <c r="F206" t="s">
-        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -9311,10 +9254,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>388</v>
+      </c>
+      <c r="F207" t="s">
         <v>389</v>
-      </c>
-      <c r="F207" t="s">
-        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9340,10 +9283,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>390</v>
+      </c>
+      <c r="F208" t="s">
         <v>391</v>
-      </c>
-      <c r="F208" t="s">
-        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -9369,10 +9312,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>392</v>
+      </c>
+      <c r="F209" t="s">
         <v>393</v>
-      </c>
-      <c r="F209" t="s">
-        <v>394</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9398,10 +9341,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>394</v>
+      </c>
+      <c r="F210" t="s">
         <v>395</v>
-      </c>
-      <c r="F210" t="s">
-        <v>396</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9427,10 +9370,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>396</v>
+      </c>
+      <c r="F211" t="s">
         <v>397</v>
-      </c>
-      <c r="F211" t="s">
-        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9456,10 +9399,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>398</v>
+      </c>
+      <c r="F212" t="s">
         <v>399</v>
-      </c>
-      <c r="F212" t="s">
-        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9485,10 +9428,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>400</v>
+      </c>
+      <c r="F213" t="s">
         <v>401</v>
-      </c>
-      <c r="F213" t="s">
-        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9514,10 +9457,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>402</v>
+      </c>
+      <c r="F214" t="s">
         <v>403</v>
-      </c>
-      <c r="F214" t="s">
-        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9543,10 +9486,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>404</v>
+      </c>
+      <c r="F215" t="s">
         <v>405</v>
-      </c>
-      <c r="F215" t="s">
-        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9572,10 +9515,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>406</v>
+      </c>
+      <c r="F216" t="s">
         <v>407</v>
-      </c>
-      <c r="F216" t="s">
-        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9601,10 +9544,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>408</v>
+      </c>
+      <c r="F217" t="s">
         <v>409</v>
-      </c>
-      <c r="F217" t="s">
-        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9630,10 +9573,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>410</v>
+      </c>
+      <c r="F218" t="s">
         <v>411</v>
-      </c>
-      <c r="F218" t="s">
-        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9659,10 +9602,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>412</v>
+      </c>
+      <c r="F219" t="s">
         <v>413</v>
-      </c>
-      <c r="F219" t="s">
-        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9688,10 +9631,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>414</v>
+      </c>
+      <c r="F220" t="s">
         <v>415</v>
-      </c>
-      <c r="F220" t="s">
-        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9717,10 +9660,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>416</v>
+      </c>
+      <c r="F221" t="s">
         <v>417</v>
-      </c>
-      <c r="F221" t="s">
-        <v>418</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9746,10 +9689,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>418</v>
+      </c>
+      <c r="F222" t="s">
         <v>419</v>
-      </c>
-      <c r="F222" t="s">
-        <v>420</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9775,10 +9718,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>420</v>
+      </c>
+      <c r="F223" t="s">
         <v>421</v>
-      </c>
-      <c r="F223" t="s">
-        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9804,10 +9747,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>422</v>
+      </c>
+      <c r="F224" t="s">
         <v>423</v>
-      </c>
-      <c r="F224" t="s">
-        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9833,10 +9776,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>424</v>
+      </c>
+      <c r="F225" t="s">
         <v>425</v>
-      </c>
-      <c r="F225" t="s">
-        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -9862,10 +9805,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F226" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9891,10 +9834,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F227" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9920,10 +9863,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F228" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9949,10 +9892,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F229" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -9978,10 +9921,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F230" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G230" t="n">
         <v>4</v>
@@ -10007,10 +9950,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F231" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10036,10 +9979,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F232" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -10065,10 +10008,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F233" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10094,10 +10037,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F234" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G234" t="n">
         <v>15</v>
@@ -10123,10 +10066,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F235" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10152,10 +10095,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F236" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10181,10 +10124,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F237" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10210,10 +10153,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F238" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10239,10 +10182,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F239" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -10268,10 +10211,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F240" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -10297,10 +10240,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F241" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10326,10 +10269,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F242" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10355,10 +10298,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F243" t="s">
-        <v>462</v>
+        <v>192</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10384,10 +10327,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F244" t="s">
-        <v>464</v>
+        <v>204</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10413,10 +10356,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F245" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10442,10 +10385,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F246" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10500,10 +10443,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10529,10 +10472,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10558,10 +10501,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10587,10 +10530,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10616,10 +10559,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F252" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10645,10 +10588,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F253" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10674,10 +10617,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F254" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10703,10 +10646,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F255" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G255" t="n">
         <v>11</v>
@@ -10732,10 +10675,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F256" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G256" t="n">
         <v>29</v>
@@ -10761,10 +10704,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F257" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10790,10 +10733,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F258" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10819,10 +10762,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F259" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10848,10 +10791,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F260" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G260" t="n">
         <v>4</v>
@@ -10877,10 +10820,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F261" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10906,10 +10849,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F262" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10935,10 +10878,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F263" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10964,10 +10907,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F264" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -10993,10 +10936,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F265" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11022,10 +10965,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G266" t="n">
         <v>3</v>
@@ -11051,10 +10994,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F267" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -11080,10 +11023,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -11109,10 +11052,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -11138,10 +11081,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -11167,10 +11110,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F271" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11196,10 +11139,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -11225,10 +11168,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11254,10 +11197,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>2</v>
@@ -11283,10 +11226,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11312,10 +11255,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -11341,10 +11284,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11370,10 +11313,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -11399,10 +11342,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11428,10 +11371,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F280" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -11457,10 +11400,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>536</v>
+        <v>122</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11486,10 +11429,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G282" t="n">
         <v>3</v>
@@ -11515,10 +11458,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>126</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11544,10 +11487,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G284" t="n">
         <v>4</v>
@@ -11573,10 +11516,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>124</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -11602,10 +11545,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>128</v>
       </c>
       <c r="G286" t="n">
         <v>4</v>
@@ -11631,10 +11574,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11660,10 +11603,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11689,10 +11632,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11718,10 +11661,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11747,10 +11690,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11776,10 +11719,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11805,10 +11748,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11834,10 +11777,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F294" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11863,10 +11806,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F295" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11892,10 +11835,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F296" t="s">
-        <v>566</v>
+        <v>134</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11921,10 +11864,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F297" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11950,10 +11893,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11979,10 +11922,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12008,10 +11951,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F300" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12037,10 +11980,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F301" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12066,10 +12009,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F302" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12095,10 +12038,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F303" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12124,10 +12067,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F304" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12153,10 +12096,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F305" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12182,10 +12125,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F306" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12211,10 +12154,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F307" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12240,10 +12183,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F308" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12269,10 +12212,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12298,10 +12241,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -12327,10 +12270,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12356,10 +12299,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>186</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -12385,10 +12328,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12414,10 +12357,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12443,10 +12386,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12472,10 +12415,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12530,10 +12473,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F318" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12559,10 +12502,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F319" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G319" t="n">
         <v>9</v>
@@ -12588,10 +12531,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F320" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12617,10 +12560,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F321" t="s">
-        <v>614</v>
+        <v>108</v>
       </c>
       <c r="G321" t="n">
         <v>7</v>
@@ -12646,10 +12589,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="F322" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -12675,10 +12618,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="F323" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="G323" t="n">
         <v>7</v>
@@ -12704,10 +12647,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F324" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12733,10 +12676,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="F325" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12762,10 +12705,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F326" t="s">
-        <v>624</v>
+        <v>114</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12791,10 +12734,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="F327" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12820,10 +12763,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="F328" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12849,10 +12792,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="F329" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12878,10 +12821,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="F330" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12907,10 +12850,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="F331" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12936,10 +12879,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F332" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12965,10 +12908,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="F333" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12994,10 +12937,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="F334" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13023,10 +12966,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F335" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13052,10 +12995,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="F336" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="G336" t="n">
         <v>4</v>
@@ -13081,10 +13024,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F337" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13110,10 +13053,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="F338" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -13139,10 +13082,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="F339" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13168,10 +13111,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="F340" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -13197,10 +13140,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F341" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="G341" t="n">
         <v>2</v>
@@ -13226,10 +13169,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F342" t="s">
-        <v>656</v>
+        <v>222</v>
       </c>
       <c r="G342" t="n">
         <v>5</v>
@@ -13255,10 +13198,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F343" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -13284,10 +13227,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="F344" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13313,10 +13256,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F345" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -13342,10 +13285,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="F346" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13371,10 +13314,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="F347" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13400,10 +13343,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="F348" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13429,10 +13372,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="F349" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13458,10 +13401,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="F350" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13487,10 +13430,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13516,10 +13459,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -13545,10 +13488,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13574,10 +13517,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13603,10 +13546,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13632,10 +13575,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13661,10 +13604,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13690,10 +13633,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13719,10 +13662,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13777,10 +13720,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="F361" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13806,10 +13749,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="F362" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13835,10 +13778,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>2</v>
@@ -13864,10 +13807,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
@@ -13893,10 +13836,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>375</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13922,10 +13865,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="G366" t="n">
         <v>4</v>
@@ -13951,10 +13894,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="F367" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13980,10 +13923,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="F368" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -14009,10 +13952,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="F369" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14038,10 +13981,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="F370" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14067,10 +14010,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="F371" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14096,10 +14039,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="F372" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14125,10 +14068,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="F373" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14154,10 +14097,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F374" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14183,10 +14126,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="F375" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14212,10 +14155,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14241,10 +14184,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>492</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14270,10 +14213,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
       <c r="F378" t="s">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14299,10 +14242,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>723</v>
+        <v>707</v>
       </c>
       <c r="F379" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14328,10 +14271,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>725</v>
+        <v>709</v>
       </c>
       <c r="F380" t="s">
-        <v>726</v>
+        <v>710</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14357,10 +14300,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
       <c r="F381" t="s">
-        <v>728</v>
+        <v>712</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14386,10 +14329,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>729</v>
+        <v>713</v>
       </c>
       <c r="F382" t="s">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14415,10 +14358,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>731</v>
+        <v>715</v>
       </c>
       <c r="F383" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14444,10 +14387,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="F384" t="s">
-        <v>734</v>
+        <v>718</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14473,10 +14416,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F385" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14502,10 +14445,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="F386" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G386" t="n">
         <v>2</v>
@@ -14531,10 +14474,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>739</v>
+        <v>723</v>
       </c>
       <c r="F387" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14560,10 +14503,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="F388" t="s">
-        <v>742</v>
+        <v>726</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14589,10 +14532,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="F389" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14618,10 +14561,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="F390" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14647,10 +14590,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="F391" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14676,10 +14619,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="F392" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14705,10 +14648,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="F393" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14734,10 +14677,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="F394" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14763,10 +14706,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="F395" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -14792,10 +14735,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="F396" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14821,10 +14764,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="F397" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14850,10 +14793,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="F398" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14879,10 +14822,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="F399" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14908,10 +14851,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="F400" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14937,10 +14880,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="F401" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14966,10 +14909,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F402" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14995,10 +14938,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F403" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="G403" t="n">
         <v>7</v>
@@ -15024,10 +14967,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F404" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="G404" t="n">
         <v>2</v>
@@ -15053,10 +14996,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="F405" t="s">
-        <v>774</v>
+        <v>758</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15082,10 +15025,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F406" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15111,10 +15054,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F407" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15140,10 +15083,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>779</v>
+        <v>763</v>
       </c>
       <c r="F408" t="s">
-        <v>780</v>
+        <v>764</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15169,10 +15112,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="F409" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -15198,10 +15141,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="F410" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -15227,10 +15170,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="F411" t="s">
-        <v>786</v>
+        <v>770</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15256,10 +15199,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="F412" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15285,10 +15228,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="F413" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15314,10 +15257,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="F414" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15343,10 +15286,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="F415" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15372,10 +15315,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="F416" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15401,10 +15344,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="F417" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15430,10 +15373,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="F418" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15459,10 +15402,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="F419" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15488,10 +15431,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
       <c r="F420" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15517,10 +15460,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="F421" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15546,10 +15489,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="F422" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="G422" t="n">
         <v>2</v>
@@ -15575,10 +15518,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="F423" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15604,10 +15547,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F424" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="G424" t="n">
         <v>2</v>
@@ -15633,10 +15576,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="F425" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15662,10 +15605,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
       <c r="F426" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15691,10 +15634,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="F427" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15720,10 +15663,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="F428" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15749,10 +15692,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F429" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15778,10 +15721,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F430" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15807,10 +15750,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F431" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15836,10 +15779,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="F432" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15865,10 +15808,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="F433" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15894,10 +15837,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F434" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15923,10 +15866,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F435" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15952,10 +15895,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="F436" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15981,10 +15924,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="F437" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16010,10 +15953,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="F438" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16039,10 +15982,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="F439" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -16068,10 +16011,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>837</v>
+        <v>821</v>
       </c>
       <c r="F440" t="s">
-        <v>838</v>
+        <v>822</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16097,10 +16040,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="F441" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16126,10 +16069,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="F442" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16155,10 +16098,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="F443" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16184,10 +16127,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="F444" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16213,10 +16156,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F445" t="s">
-        <v>848</v>
+        <v>832</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16242,10 +16185,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>849</v>
+        <v>833</v>
       </c>
       <c r="F446" t="s">
-        <v>850</v>
+        <v>834</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16271,10 +16214,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="F447" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="G447" t="n">
         <v>2</v>
@@ -16300,10 +16243,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F448" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -16329,10 +16272,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="F449" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16358,10 +16301,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="F450" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16387,10 +16330,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="F451" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16416,10 +16359,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="F452" t="s">
-        <v>862</v>
+        <v>846</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -16445,10 +16388,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>863</v>
+        <v>847</v>
       </c>
       <c r="F453" t="s">
-        <v>864</v>
+        <v>848</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16474,10 +16417,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>865</v>
+        <v>849</v>
       </c>
       <c r="F454" t="s">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16503,10 +16446,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>867</v>
+        <v>851</v>
       </c>
       <c r="F455" t="s">
-        <v>868</v>
+        <v>852</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16532,10 +16475,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="F456" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16561,10 +16504,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F457" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16590,10 +16533,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F458" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16619,10 +16562,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="F459" t="s">
-        <v>876</v>
+        <v>860</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16648,10 +16591,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="F460" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16677,10 +16620,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
       <c r="F461" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16706,10 +16649,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>881</v>
+        <v>865</v>
       </c>
       <c r="F462" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16735,10 +16678,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>883</v>
+        <v>867</v>
       </c>
       <c r="F463" t="s">
-        <v>884</v>
+        <v>868</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16764,10 +16707,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>885</v>
+        <v>869</v>
       </c>
       <c r="F464" t="s">
-        <v>886</v>
+        <v>870</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -16793,10 +16736,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>887</v>
+        <v>871</v>
       </c>
       <c r="F465" t="s">
-        <v>888</v>
+        <v>872</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16822,10 +16765,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="F466" t="s">
-        <v>890</v>
+        <v>874</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16851,10 +16794,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F467" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16880,10 +16823,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="F468" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16909,10 +16852,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="F469" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16938,10 +16881,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="F470" t="s">
-        <v>898</v>
+        <v>814</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16967,10 +16910,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>899</v>
+        <v>882</v>
       </c>
       <c r="F471" t="s">
-        <v>900</v>
+        <v>883</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16996,10 +16939,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>901</v>
+        <v>884</v>
       </c>
       <c r="F472" t="s">
-        <v>902</v>
+        <v>885</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17025,10 +16968,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="F473" t="s">
-        <v>904</v>
+        <v>887</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17054,10 +16997,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>905</v>
+        <v>888</v>
       </c>
       <c r="F474" t="s">
-        <v>906</v>
+        <v>889</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17083,10 +17026,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F475" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G475" t="n">
         <v>3</v>
@@ -17141,10 +17084,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F477" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17170,10 +17113,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F478" t="s">
-        <v>912</v>
+        <v>895</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17199,10 +17142,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="F479" t="s">
-        <v>914</v>
+        <v>897</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17228,10 +17171,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>915</v>
+        <v>898</v>
       </c>
       <c r="F480" t="s">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17257,10 +17200,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="F481" t="s">
-        <v>918</v>
+        <v>901</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17286,10 +17229,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="F482" t="s">
-        <v>920</v>
+        <v>903</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17315,10 +17258,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>921</v>
+        <v>904</v>
       </c>
       <c r="F483" t="s">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17344,10 +17287,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>923</v>
+        <v>906</v>
       </c>
       <c r="F484" t="s">
-        <v>924</v>
+        <v>907</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17373,10 +17316,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>925</v>
+        <v>908</v>
       </c>
       <c r="F485" t="s">
-        <v>926</v>
+        <v>909</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17402,10 +17345,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>927</v>
+        <v>910</v>
       </c>
       <c r="F486" t="s">
-        <v>928</v>
+        <v>911</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17431,10 +17374,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>929</v>
+        <v>912</v>
       </c>
       <c r="F487" t="s">
-        <v>930</v>
+        <v>913</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17460,10 +17403,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>931</v>
+        <v>914</v>
       </c>
       <c r="F488" t="s">
-        <v>932</v>
+        <v>915</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17489,10 +17432,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>933</v>
+        <v>916</v>
       </c>
       <c r="F489" t="s">
-        <v>934</v>
+        <v>917</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17518,10 +17461,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>935</v>
+        <v>918</v>
       </c>
       <c r="F490" t="s">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17547,10 +17490,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>937</v>
+        <v>920</v>
       </c>
       <c r="F491" t="s">
-        <v>938</v>
+        <v>921</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17576,10 +17519,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>939</v>
+        <v>922</v>
       </c>
       <c r="F492" t="s">
-        <v>940</v>
+        <v>923</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17605,10 +17548,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>941</v>
+        <v>924</v>
       </c>
       <c r="F493" t="s">
-        <v>942</v>
+        <v>925</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17634,10 +17577,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>943</v>
+        <v>926</v>
       </c>
       <c r="F494" t="s">
-        <v>944</v>
+        <v>927</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17663,10 +17606,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="F495" t="s">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17692,10 +17635,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="F496" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17721,10 +17664,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="F497" t="s">
-        <v>950</v>
+        <v>464</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17750,10 +17693,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>951</v>
+        <v>933</v>
       </c>
       <c r="F498" t="s">
-        <v>952</v>
+        <v>934</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17779,10 +17722,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>953</v>
+        <v>935</v>
       </c>
       <c r="F499" t="s">
-        <v>954</v>
+        <v>936</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17808,10 +17751,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>955</v>
+        <v>937</v>
       </c>
       <c r="F500" t="s">
-        <v>956</v>
+        <v>938</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17837,10 +17780,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>957</v>
+        <v>939</v>
       </c>
       <c r="F501" t="s">
-        <v>958</v>
+        <v>940</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17866,10 +17809,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>959</v>
+        <v>941</v>
       </c>
       <c r="F502" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17895,10 +17838,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="F503" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17924,10 +17867,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>961</v>
+        <v>943</v>
       </c>
       <c r="F504" t="s">
-        <v>962</v>
+        <v>369</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17953,10 +17896,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="F505" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="G505" t="n">
         <v>3</v>
@@ -17982,10 +17925,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="F506" t="s">
-        <v>966</v>
+        <v>947</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18011,10 +17954,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>967</v>
+        <v>948</v>
       </c>
       <c r="F507" t="s">
-        <v>968</v>
+        <v>949</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18040,10 +17983,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>969</v>
+        <v>950</v>
       </c>
       <c r="F508" t="s">
-        <v>970</v>
+        <v>951</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18069,10 +18012,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>971</v>
+        <v>952</v>
       </c>
       <c r="F509" t="s">
-        <v>972</v>
+        <v>953</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18098,10 +18041,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>973</v>
+        <v>954</v>
       </c>
       <c r="F510" t="s">
-        <v>974</v>
+        <v>955</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18127,10 +18070,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>975</v>
+        <v>956</v>
       </c>
       <c r="F511" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18156,10 +18099,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="F512" t="s">
-        <v>978</v>
+        <v>959</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18185,10 +18128,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="F513" t="s">
-        <v>980</v>
+        <v>961</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18214,10 +18157,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>981</v>
+        <v>962</v>
       </c>
       <c r="F514" t="s">
-        <v>982</v>
+        <v>963</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18243,10 +18186,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
       <c r="F515" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="G515" t="n">
         <v>5</v>

--- a/xlsx/巴西_intext.xlsx
+++ b/xlsx/巴西_intext.xlsx
@@ -29,7 +29,7 @@
     <t>拉丁美洲</t>
   </si>
   <si>
-    <t>政策_政策_行政_巴西</t>
+    <t>体育运动_体育运动_伊朗_巴西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
@@ -4880,7 +4880,7 @@
         <v>104</v>
       </c>
       <c r="G54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H54" t="s">
         <v>4</v>
@@ -5518,7 +5518,7 @@
         <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -5924,7 +5924,7 @@
         <v>174</v>
       </c>
       <c r="G90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -10738,7 +10738,7 @@
         <v>486</v>
       </c>
       <c r="G256" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
